--- a/human_annotations.xlsx
+++ b/human_annotations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PolyU\human_perception\Human_labelling_errors\github\Learning-with-Real-world-Label-Noise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB432B3-3AF0-470B-A4A4-14A06C1A0C0D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B75F755-998E-4D3A-8EF9-7365F9E8B18D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4995" yWindow="2610" windowWidth="25215" windowHeight="11385" xr2:uid="{69A791F2-67CA-4A5D-87B0-D10CCC3030C7}"/>
   </bookViews>
@@ -1234,12 +1234,12 @@
   <dimension ref="A1:AG241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -25820,18 +25820,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25854,14 +25854,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5DE97D4-9AAA-4930-ADD5-483E32F92085}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F21A6A7B-054C-46E5-B66A-5F30207C943A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -25876,4 +25868,12 @@
     <ds:schemaRef ds:uri="3037693d-dceb-472c-9b07-eafed28b0aa2"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5DE97D4-9AAA-4930-ADD5-483E32F92085}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>